--- a/InternetSpeedTestReport.xlsx
+++ b/InternetSpeedTestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t/>
   </si>
@@ -42,16 +42,16 @@
     <t>PROVIDER</t>
   </si>
   <si>
-    <t>08/24/2021 12:44 AM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>61.31</t>
-  </si>
-  <si>
-    <t>60.73</t>
+    <t>08/24/2021 12:33 PM</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>60.24</t>
+  </si>
+  <si>
+    <t>59.67</t>
   </si>
   <si>
     <t>&lt; 50</t>
@@ -65,37 +65,46 @@
     <t>Alliance Broadband</t>
   </si>
   <si>
-    <t>08/24/2021 12:38 AM</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>61.20</t>
-  </si>
-  <si>
-    <t>60.66</t>
-  </si>
-  <si>
-    <t>08/24/2021 12:36 AM</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>61.36</t>
-  </si>
-  <si>
-    <t>59.96</t>
-  </si>
-  <si>
-    <t>08/24/2021 12:41 AM</t>
+    <t>08/24/2021 12:23 PM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>59.75</t>
+  </si>
+  <si>
+    <t>59.55</t>
+  </si>
+  <si>
+    <t>08/24/2021 11:53 AM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>56.04</t>
+  </si>
+  <si>
+    <t>60.14</t>
+  </si>
+  <si>
+    <t>08/24/2021 11:43 AM</t>
+  </si>
+  <si>
+    <t>60.50</t>
+  </si>
+  <si>
+    <t>60.74</t>
+  </si>
+  <si>
+    <t>08/24/2021 12:02 PM</t>
   </si>
   <si>
     <t>No Internet Connection</t>
   </si>
   <si>
-    <t>08/24/2021 12:43 AM</t>
+    <t>08/24/2021 12:12 PM</t>
   </si>
 </sst>
 </file>
@@ -243,45 +252,68 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
